--- a/docs/birthdays.xlsx
+++ b/docs/birthdays.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -802,61 +802,9 @@
         <v>052-7560377</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>309327469</v>
-      </c>
-      <c r="B19" t="str">
-        <v>בדיקה ראשונה</v>
-      </c>
-      <c r="C19" t="str">
-        <v>15598</v>
-      </c>
-      <c r="D19" t="str">
-        <v>5/18/25</v>
-      </c>
-      <c r="E19" t="str">
-        <v>7/5/05</v>
-      </c>
-      <c r="F19" t="str">
-        <v>עובד אחזקה</v>
-      </c>
-      <c r="G19" t="str">
-        <v>ויטלי</v>
-      </c>
-      <c r="H19" t="str">
-        <v>052-7560378</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>309327470</v>
-      </c>
-      <c r="B20" t="str">
-        <v>בדיקה שנייה</v>
-      </c>
-      <c r="C20" t="str">
-        <v>15599</v>
-      </c>
-      <c r="D20" t="str">
-        <v>5/18/25</v>
-      </c>
-      <c r="E20" t="str">
-        <v>7/5/02</v>
-      </c>
-      <c r="F20" t="str">
-        <v>עובד אחזקה</v>
-      </c>
-      <c r="G20" t="str">
-        <v>ויטלי</v>
-      </c>
-      <c r="H20" t="str">
-        <v>052-7560379</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R20"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R18"/>
   </ignoredErrors>
 </worksheet>
 </file>